--- a/Results.xlsx
+++ b/Results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,76 +367,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Menu</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Menu</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Standard Menu</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Undo</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>earnestly</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Customized Menu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>coil</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Standard Menu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>implore</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Customized Menu</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Untitle</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>staffer</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Standard Menu</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">demolish </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
